--- a/Test/Lawnmower/T2/Sensors_data_1000037.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000037.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9798213345061713</v>
+        <v>0.9772412804225707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001092273078869989</v>
+        <v>0.001079406326155559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1979524011891238</v>
+        <v>0.3334826855171901</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,93 +500,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9071988785507504</v>
+        <v>0.9870437109153402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003718462858681754</v>
+        <v>0.0005849809700814296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1839456438474534</v>
+        <v>0.01605952710309416</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9459155114770359</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.002565132843258548</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.336745881698949</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7679701881774977</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01047622691349529</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008775767712498495</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9781359238897112</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0008242930248796006</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02834342422442249</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
